--- a/IS330 - Database & Data Analysis/DATABASE/Now Where Did I Leave Off Project.xlsx
+++ b/IS330 - Database & Data Analysis/DATABASE/Now Where Did I Leave Off Project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\REPOSITORIES\school\IS330 - Database &amp; Data Analysis\DATABASE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\REPOSITORIES\school\IS330 - Database &amp; Data Analysis\DATABASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDB5BF5-F1EC-4B9D-9C73-525CAC694608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7FA757-08D7-4031-ACF1-C08707C34F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WIRE FRAME" sheetId="2" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>episodeSynop</t>
   </si>
   <si>
-    <t>lastWatched</t>
-  </si>
-  <si>
     <t>seriesName</t>
   </si>
   <si>
@@ -197,9 +194,6 @@
     <t>CREATE TABLE users (</t>
   </si>
   <si>
-    <t xml:space="preserve">   userID INT PRIMARY KEY,</t>
-  </si>
-  <si>
     <t xml:space="preserve">   lastName VARHAR(50),</t>
   </si>
   <si>
@@ -218,18 +212,12 @@
     <t>CREATE TABLE genres (</t>
   </si>
   <si>
-    <t xml:space="preserve">   genreID INT PRIMARY KEY,</t>
-  </si>
-  <si>
     <t xml:space="preserve">   genreName VARCHAR(50)</t>
   </si>
   <si>
     <t>CREATE TABLE series (</t>
   </si>
   <si>
-    <t xml:space="preserve">   seriesID INT PRIMARY KEY,</t>
-  </si>
-  <si>
     <t xml:space="preserve">   seriesName VARCHAR(100),</t>
   </si>
   <si>
@@ -251,9 +239,6 @@
     <t xml:space="preserve">   genreID INT, </t>
   </si>
   <si>
-    <t xml:space="preserve">   PRIMARY KEY (seriesID, genreID),</t>
-  </si>
-  <si>
     <t xml:space="preserve">   FOREIGN KEY (seriesID) REFERENCES series(seriesID),</t>
   </si>
   <si>
@@ -263,9 +248,6 @@
     <t>CREATE TABLE episodes (</t>
   </si>
   <si>
-    <t xml:space="preserve">   episodeID INT PRIMARY KEY,</t>
-  </si>
-  <si>
     <t xml:space="preserve">   seriesID INT,</t>
   </si>
   <si>
@@ -278,18 +260,12 @@
     <t xml:space="preserve">   episodeSynop TEXT,</t>
   </si>
   <si>
-    <t xml:space="preserve">   lastWatched DATETIME,</t>
-  </si>
-  <si>
     <t xml:space="preserve">   FOREIGN KEY (seriesID) REFERENCES series(seriesID)</t>
   </si>
   <si>
     <t>CREATE TABLE seriesTrackers (</t>
   </si>
   <si>
-    <t xml:space="preserve">   trackerID INT PRIMARY KEY,</t>
-  </si>
-  <si>
     <t xml:space="preserve">   userID INT,</t>
   </si>
   <si>
@@ -303,6 +279,30 @@
   </si>
   <si>
     <t xml:space="preserve">   FOREIGN KEY (episodeID) REFERENCES episodes(episodeID)</t>
+  </si>
+  <si>
+    <t>lastWatchedAt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   lastWatchedAt DATETIME,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   userID INT PRIMARY KEY auto_increment,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   genreID INT PRIMARY KEY auto_increment,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   seriesID INT PRIMARY KEY auto_increment,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   seriesGenreID INT PRIMARY KEY auto_increment,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   episodeID INT PRIMARY KEY auto_increment,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   trackerID INT PRIMARY KEY auto_increment,</t>
   </si>
 </sst>
 </file>
@@ -392,7 +392,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -437,8 +437,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -711,6 +717,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -720,7 +739,7 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -755,8 +774,6 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -828,6 +845,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="24" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1250,262 +1271,262 @@
       <c r="A1" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="22"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45"/>
-      <c r="G4" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="45"/>
+      <c r="B4" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
+      <c r="G4" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="43"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="48"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="46"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="46"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
-      <c r="B6" s="26"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="27"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="38"/>
+      <c r="E6" s="25"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="27"/>
+      <c r="L6" s="25"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="34" t="s">
+      <c r="B7" s="26"/>
+      <c r="E7" s="27"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" s="29"/>
+      <c r="L7" s="27"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="28"/>
-      <c r="E8" s="29"/>
-      <c r="G8" s="28"/>
-      <c r="L8" s="29"/>
+      <c r="B8" s="26"/>
+      <c r="E8" s="27"/>
+      <c r="G8" s="26"/>
+      <c r="L8" s="27"/>
     </row>
     <row r="9" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="29"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="34" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="J9" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="K9" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="L9" s="29"/>
+      <c r="L9" s="27"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="29"/>
+      <c r="B10" s="26"/>
+      <c r="E10" s="27"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="27"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="29"/>
+      <c r="B11" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="27"/>
     </row>
     <row r="12" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="35"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="33"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
-      <c r="B13" s="26"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="4"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="39"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="37"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
-      <c r="B14" s="26"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="39"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="37"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="28"/>
+      <c r="B15" s="26"/>
       <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="27"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="27"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="26"/>
+      <c r="D16" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="29"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="28"/>
-      <c r="D16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="29"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="29"/>
+      <c r="E16" s="27"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="27"/>
     </row>
     <row r="17" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="28"/>
+      <c r="B17" s="26"/>
       <c r="D17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="29"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="29"/>
+        <v>32</v>
+      </c>
+      <c r="E17" s="27"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="27"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="28"/>
+      <c r="B18" s="26"/>
       <c r="D18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="29"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="29"/>
+        <v>47</v>
+      </c>
+      <c r="E18" s="27"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="27"/>
     </row>
     <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="28"/>
-      <c r="E19" s="29"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="29"/>
+      <c r="B19" s="26"/>
+      <c r="E19" s="27"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="27"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="25"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="3"/>
-      <c r="E20" s="29"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="40"/>
-      <c r="L20" s="29"/>
+      <c r="E20" s="27"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="38"/>
+      <c r="L20" s="27"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
-      <c r="B21" s="26"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="7"/>
-      <c r="E21" s="29"/>
-      <c r="G21" s="26"/>
+      <c r="E21" s="27"/>
+      <c r="G21" s="24"/>
       <c r="H21" s="7"/>
-      <c r="L21" s="29"/>
+      <c r="L21" s="27"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="33"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="33"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="31"/>
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
@@ -1550,8 +1571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:G65"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1587,29 +1608,31 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
-      <c r="F4" s="18"/>
+      <c r="F4" s="47"/>
       <c r="M4" s="13"/>
       <c r="V4" s="14"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="18"/>
+      <c r="F5" s="47" t="s">
+        <v>84</v>
+      </c>
       <c r="M5" s="13"/>
       <c r="V5" s="14"/>
     </row>
@@ -1626,7 +1649,7 @@
       <c r="E6" s="15">
         <v>2</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6" s="48"/>
       <c r="M6" s="13"/>
       <c r="V6" s="14"/>
     </row>
@@ -1643,7 +1666,7 @@
       <c r="E7" s="15">
         <v>5</v>
       </c>
-      <c r="F7" s="18"/>
+      <c r="F7" s="47"/>
       <c r="M7" s="13"/>
       <c r="V7" s="14"/>
     </row>
@@ -1660,7 +1683,7 @@
       <c r="E8" s="15">
         <v>11</v>
       </c>
-      <c r="F8" s="18"/>
+      <c r="F8" s="47"/>
       <c r="M8" s="13"/>
       <c r="V8" s="14"/>
     </row>
@@ -1677,7 +1700,7 @@
       <c r="E9" s="15">
         <v>8</v>
       </c>
-      <c r="F9" s="18"/>
+      <c r="F9" s="47"/>
       <c r="V9" s="14"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -1685,7 +1708,7 @@
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
-      <c r="F10" s="18"/>
+      <c r="F10" s="47"/>
       <c r="V10" s="14"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -1693,7 +1716,7 @@
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
-      <c r="F11" s="18"/>
+      <c r="F11" s="47"/>
       <c r="V11" s="14"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -1701,7 +1724,7 @@
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
-      <c r="F12" s="18"/>
+      <c r="F12" s="47"/>
       <c r="V12" s="14"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -1735,16 +1758,16 @@
         <v>1</v>
       </c>
       <c r="C17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>22</v>
-      </c>
       <c r="E17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -1752,16 +1775,16 @@
         <v>2</v>
       </c>
       <c r="C18" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>24</v>
-      </c>
       <c r="F18" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -1773,16 +1796,16 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="16"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -1790,7 +1813,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -1798,7 +1821,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
@@ -1806,12 +1829,12 @@
         <v>3</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
@@ -1820,19 +1843,19 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
@@ -1840,16 +1863,16 @@
         <v>1</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E31" s="12">
         <v>25</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
@@ -1857,16 +1880,16 @@
         <v>2</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E32" s="12">
         <v>14</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
@@ -1874,16 +1897,16 @@
         <v>3</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E33" s="12">
         <v>14</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -1891,16 +1914,16 @@
         <v>4</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E34" s="12">
         <v>39</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
@@ -1926,16 +1949,16 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C40" s="10"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
@@ -1984,33 +2007,31 @@
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="50"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E52" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" s="9" t="s">
+      <c r="F52" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="G52" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="G52" s="50"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="9">
@@ -2023,14 +2044,12 @@
         <v>1</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G53" s="9">
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="F53" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="G53" s="50"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="9">
@@ -2043,14 +2062,12 @@
         <v>2</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G54" s="9">
-        <v>1</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="F54" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="G54" s="50"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="9">
@@ -2063,14 +2080,12 @@
         <v>3</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G55" s="9">
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="F55" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="G55" s="50"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="9">
@@ -2083,14 +2098,12 @@
         <v>1</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G56" s="9">
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="F56" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="G56" s="50"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="9">
@@ -2103,14 +2116,12 @@
         <v>2</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G57" s="9">
-        <v>1</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="F57" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="G57" s="50"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="9">
@@ -2123,14 +2134,12 @@
         <v>3</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G58" s="9">
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="F58" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="G58" s="50"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="9">
@@ -2143,14 +2152,12 @@
         <v>1</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G59" s="9">
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="F59" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="G59" s="50"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="9">
@@ -2163,14 +2170,12 @@
         <v>2</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G60" s="9">
-        <v>1</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="F60" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="G60" s="50"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="9">
@@ -2183,14 +2188,12 @@
         <v>3</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G61" s="9">
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="F61" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="G61" s="50"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="9">
@@ -2203,14 +2206,12 @@
         <v>1</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G62" s="9">
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="F62" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="G62" s="50"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="9">
@@ -2223,14 +2224,12 @@
         <v>2</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G63" s="9">
-        <v>1</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="F63" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="G63" s="50"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="9">
@@ -2243,14 +2242,12 @@
         <v>3</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G64" s="9">
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="F64" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="G64" s="50"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="9">
@@ -2259,8 +2256,8 @@
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="50"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2279,192 +2276,192 @@
   <dimension ref="B2:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H9" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>63</v>
+        <v>87</v>
+      </c>
+      <c r="H11" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H12" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H13" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H14" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H17" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H18" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H19" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
